--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237BE23E-42C8-4CC8-AEC9-CD6753CD1B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C1888-8DD5-43B2-866E-6E70F5531958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="860" windowWidth="13090" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="56080" yWindow="1730" windowWidth="13090" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C1888-8DD5-43B2-866E-6E70F5531958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D963B84-51BB-4196-A0F8-AECF6EB28587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56080" yWindow="1730" windowWidth="13090" windowHeight="18470" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="3900" yWindow="1485" windowWidth="27480" windowHeight="20115" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,12 +58,6 @@
     <t>BW</t>
   </si>
   <si>
-    <t>OperatingMode</t>
-  </si>
-  <si>
-    <t>HLC_NF_IMG</t>
-  </si>
-  <si>
     <t>QE_e2v_Spec</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>#05/24/2025</t>
+  </si>
+  <si>
+    <t>OPMODE_IMG_SPEC</t>
+  </si>
+  <si>
+    <t>IMG</t>
   </si>
 </sst>
 </file>
@@ -1768,32 +1768,32 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="10">
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1801,228 +1801,228 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="B10" s="17">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="22">
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="20">
         <v>2.363</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="19">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="18">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B22" s="19">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="B30" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D963B84-51BB-4196-A0F8-AECF6EB28587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC927D1-B45E-4331-8DD5-541B6C887D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1485" windowWidth="27480" windowHeight="20115" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="3900" yWindow="1485" windowWidth="15705" windowHeight="20115" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CGI_Noise\EBcsvData\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC927D1-B45E-4331-8DD5-541B6C887D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC092D9-19B9-47AF-9051-D145B99C4688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1485" windowWidth="15705" windowHeight="20115" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1768,16 +1768,16 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>4.6300000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC092D9-19B9-47AF-9051-D145B99C4688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4A5F4-988C-4D8C-8B9D-FA962CFA5DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
+    <workbookView xWindow="38290" yWindow="-13610" windowWidth="21820" windowHeight="37900" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1870,7 +1870,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="22">
-        <v>4.6300000000000001E-2</v>
+        <v>5.5550000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">

--- a/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
+++ b/EBcsvData/Scenarios/SCEN_IMG_NFOV_B1_HLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CGI_Noise\EBcsvData\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4A5F4-988C-4D8C-8B9D-FA962CFA5DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F2C4C-F0FB-4973-95E1-053F9BCC7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-13610" windowWidth="21820" windowHeight="37900" xr2:uid="{B0B79119-0FDD-4C30-9856-2E69E440D8C9}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Scenario</t>
   </si>
@@ -133,18 +133,12 @@
     <t>STRAY_lightforFRN210315</t>
   </si>
   <si>
-    <t>THPT_EB_NFB1_240725</t>
-  </si>
-  <si>
     <t>CAL_EB_TTR_241227</t>
   </si>
   <si>
     <t>DET_CBE_TVAC_240720</t>
   </si>
   <si>
-    <t>t_core_CBEmeas</t>
-  </si>
-  <si>
     <t>CS_HLC_NFIM_250304_SCI</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>IMG</t>
+  </si>
+  <si>
+    <t>NOTUSED</t>
+  </si>
+  <si>
+    <t>THPT_NFB1_AUG_240725</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,6 +863,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="35" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,7 +1777,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1803,10 +1812,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1867,10 +1876,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="22">
-        <v>5.5550000000000002E-2</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1886,7 +1895,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1907,7 +1916,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="20">
         <v>2.363</v>
@@ -1915,7 +1924,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="19">
         <v>23</v>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="19">
         <v>22</v>
@@ -1931,7 +1940,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="18">
         <v>0.25</v>
@@ -1939,15 +1948,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19">
         <v>2.2599999999999998</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="19">
         <v>3</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="19">
         <v>10</v>
@@ -1971,7 +1980,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="19">
         <v>1</v>
@@ -1982,15 +1991,15 @@
         <v>16</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>27</v>
+      <c r="B27" s="24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1998,7 +2007,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2022,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
